--- a/Data/raw/SALES MONTHWISE.xlsx
+++ b/Data/raw/SALES MONTHWISE.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IITM\BDM\Data\raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D64659-8905-4646-A281-6DE35B40E2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="10035"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COLOUR POPLIN CLOTH" sheetId="1" r:id="rId1"/>
@@ -103,7 +109,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;&quot;0"/>
     <numFmt numFmtId="165" formatCode="&quot;&quot;0.00&quot; MTRS&quot;"/>
@@ -239,7 +245,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -266,13 +272,13 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -287,16 +293,10 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -305,13 +305,13 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -320,8 +320,14 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -332,6 +338,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -380,7 +389,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -413,9 +422,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -448,6 +474,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -623,132 +666,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="28" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="29"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="27"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
@@ -765,7 +808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
@@ -774,7 +817,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>14</v>
       </c>
@@ -787,7 +830,7 @@
         <v>1645603.2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>15</v>
       </c>
@@ -800,18 +843,18 @@
         <v>331324.2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="19" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="12"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
@@ -824,7 +867,7 @@
         <v>2675277.2000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>18</v>
       </c>
@@ -837,7 +880,7 @@
         <v>2061466.6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>19</v>
       </c>
@@ -850,7 +893,7 @@
         <v>3125429</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>20</v>
       </c>
@@ -863,7 +906,7 @@
         <v>2275899.7999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>21</v>
       </c>
@@ -876,7 +919,7 @@
         <v>710262.8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>22</v>
       </c>
@@ -889,7 +932,7 @@
         <v>819517.8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>23</v>
       </c>
@@ -902,7 +945,7 @@
         <v>181560.5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>24</v>
       </c>
@@ -915,7 +958,7 @@
         <v>176608.1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>25</v>
       </c>
@@ -928,7 +971,7 @@
         <v>477400</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>26</v>
       </c>
@@ -943,18 +986,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
